--- a/Data/Processed/Angiosperms/missing_powo_ipni/Bromeliaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Bromeliaceae.xlsx
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -13280,7 +13280,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -14512,7 +14512,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -15887,7 +15887,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -16261,7 +16261,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -16720,7 +16720,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -17094,7 +17094,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -17358,7 +17358,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -19250,7 +19250,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -19833,7 +19833,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -20031,7 +20031,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -20201,7 +20201,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -20286,7 +20286,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -20462,7 +20462,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -20550,7 +20550,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -21859,7 +21859,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -22123,7 +22123,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -22211,7 +22211,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -22299,7 +22299,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -22387,7 +22387,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -22750,7 +22750,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -23003,7 +23003,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -23421,7 +23421,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -23509,7 +23509,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -23762,7 +23762,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -23850,7 +23850,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -23993,7 +23993,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -24169,7 +24169,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -24257,7 +24257,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -24345,7 +24345,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -24521,7 +24521,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -24664,7 +24664,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -24752,7 +24752,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -25841,7 +25841,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -26347,7 +26347,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -26490,7 +26490,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -26578,7 +26578,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -26666,7 +26666,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -26864,7 +26864,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -27007,7 +27007,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -27095,7 +27095,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -28239,7 +28239,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -29647,7 +29647,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -29790,7 +29790,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -30318,7 +30318,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -32331,7 +32331,7 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -32694,7 +32694,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -32782,7 +32782,7 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -32925,7 +32925,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -33178,7 +33178,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -33266,7 +33266,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -33354,7 +33354,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -33442,7 +33442,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -33530,7 +33530,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -33618,7 +33618,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -33706,7 +33706,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -33794,7 +33794,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -33882,7 +33882,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -34025,7 +34025,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -34113,7 +34113,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -34201,7 +34201,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -34289,7 +34289,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -34377,7 +34377,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -34520,7 +34520,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -34608,7 +34608,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -34696,7 +34696,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -34784,7 +34784,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -34927,7 +34927,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -35103,7 +35103,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -35191,7 +35191,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -35279,7 +35279,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -35367,7 +35367,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -35455,7 +35455,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -35543,7 +35543,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -35553,7 +35553,7 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 4(39): 309 (-310), fig. 1987 </t>
+          <t>Bradea 4(39): 309 (-310), fig. 1987</t>
         </is>
       </c>
       <c r="J564" t="b">
@@ -35621,7 +35621,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Bromeliad Soc. 18: 109, figs. 1968 </t>
+          <t>Bull. Bromeliad Soc. 18: 109, figs. 1968</t>
         </is>
       </c>
       <c r="J565" t="b">
@@ -35699,7 +35699,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
@@ -35777,7 +35777,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -35787,7 +35787,7 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rev. Hort. [Paris]. 61: 84, tab. 1889 </t>
+          <t>Rev. Hort. [Paris]. 61: 84, tab. 1889</t>
         </is>
       </c>
       <c r="J567" t="b">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
@@ -35865,7 +35865,7 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t xml:space="preserve">Handb. Bromel. 41. 1889 [Aug-Oct 1889] </t>
+          <t>Handb. Bromel. 41. 1889 [Aug-Oct 1889]</t>
         </is>
       </c>
       <c r="J568" t="b">
@@ -35933,7 +35933,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -35943,7 +35943,7 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 4(39): 314 (1987). </t>
+          <t>Bradea 4(39): 314 (1987).</t>
         </is>
       </c>
       <c r="J569" t="b">
@@ -36011,7 +36011,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -36021,7 +36021,7 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 1(29): 315, fig. 1973 </t>
+          <t>Bradea 1(29): 315, fig. 1973</t>
         </is>
       </c>
       <c r="J570" t="b">
@@ -36089,7 +36089,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
@@ -36099,7 +36099,7 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 14: 244. 1916 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 14: 244. 1916</t>
         </is>
       </c>
       <c r="J571" t="b">
@@ -36167,7 +36167,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -36177,7 +36177,7 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t xml:space="preserve">Handb. Bromel. 11. 1889 [Aug-Oct 1889] </t>
+          <t>Handb. Bromel. 11. 1889 [Aug-Oct 1889]</t>
         </is>
       </c>
       <c r="J572" t="b">
@@ -36245,7 +36245,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -36255,7 +36255,7 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 16: 5. 1919 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 16: 5. 1919</t>
         </is>
       </c>
       <c r="J573" t="b">
@@ -36323,7 +36323,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -36333,7 +36333,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 4(33): 256 (-257), fig. 1986 </t>
+          <t>Bradea 4(33): 256 (-257), fig. 1986</t>
         </is>
       </c>
       <c r="J574" t="b">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
@@ -36411,7 +36411,7 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 18: 31, fig. 1969 </t>
+          <t>Mem. New York Bot. Gard. 18: 31, fig. 1969</t>
         </is>
       </c>
       <c r="J575" t="b">
@@ -36479,7 +36479,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
@@ -36489,7 +36489,7 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cryptanthus Soc. J. 16(1): 12 (-14; fig. 1). 2001 [Jan-Mar 2001] </t>
+          <t>Cryptanthus Soc. J. 16(1): 12 (-14; fig. 1). 2001 [Jan-Mar 2001]</t>
         </is>
       </c>
       <c r="J576" t="b">
@@ -36557,7 +36557,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
@@ -36635,7 +36635,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
@@ -36645,7 +36645,7 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t xml:space="preserve">Handb. Bromel. 15. 1889 [Aug-Oct 1889] </t>
+          <t>Handb. Bromel. 15. 1889 [Aug-Oct 1889]</t>
         </is>
       </c>
       <c r="J578" t="b">
@@ -36713,7 +36713,7 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
@@ -36723,7 +36723,7 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mag. 120: t. 7340. 1894 </t>
+          <t>Bot. Mag. 120: t. 7340. 1894</t>
         </is>
       </c>
       <c r="J579" t="b">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
@@ -36869,7 +36869,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
@@ -36947,7 +36947,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
@@ -36957,7 +36957,7 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 9: 248. 1963 </t>
+          <t>Phytologia 9: 248. 1963</t>
         </is>
       </c>
       <c r="J582" t="b">
@@ -37025,7 +37025,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
@@ -37035,7 +37035,7 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Bromeliad Soc. 53(2): 73 (71-77; figs. 20-22). 2003 [May 2003] </t>
+          <t>J. Bromeliad Soc. 53(2): 73 (71-77; figs. 20-22). 2003 [May 2003]</t>
         </is>
       </c>
       <c r="J583" t="b">
@@ -37103,7 +37103,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
@@ -37191,7 +37191,7 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 3(12): 89 (-90), fig. 1980 </t>
+          <t>Bradea 3(12): 89 (-90), fig. 1980</t>
         </is>
       </c>
       <c r="J585" t="b">
@@ -37259,7 +37259,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t xml:space="preserve">Smithsonian Misc. Collect. 126(1): 30, fig. 66. 1955 </t>
+          <t>Smithsonian Misc. Collect. 126(1): 30, fig. 66. 1955</t>
         </is>
       </c>
       <c r="J586" t="b">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
@@ -37347,7 +37347,7 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 24: 447, pl. 5, figs. 13, 14. 1972 </t>
+          <t>Phytologia 24: 447, pl. 5, figs. 13, 14. 1972</t>
         </is>
       </c>
       <c r="J587" t="b">
@@ -37415,7 +37415,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
@@ -37425,7 +37425,7 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 9: 244. 1963 </t>
+          <t>Phytologia 9: 244. 1963</t>
         </is>
       </c>
       <c r="J588" t="b">
@@ -37493,7 +37493,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
@@ -37503,7 +37503,7 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 9: 244. 1963 </t>
+          <t>Phytologia 9: 244. 1963</t>
         </is>
       </c>
       <c r="J589" t="b">
@@ -37571,7 +37571,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
@@ -37581,7 +37581,7 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 4(32): 229 (-230), fig. 1986 </t>
+          <t>Bradea 4(32): 229 (-230), fig. 1986</t>
         </is>
       </c>
       <c r="J590" t="b">
